--- a/risultato/FASCIA B - GIALLOARANCIO-ARANCIO.xlsx
+++ b/risultato/FASCIA B - GIALLOARANCIO-ARANCIO.xlsx
@@ -574,21 +574,21 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>RENOSTO</t>
+          <t>TAULLARAJ</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>NOEMI</t>
+          <t>IGLI</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>BERALDO</t>
+          <t>GASPARETTO</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>ALESSIA</t>
+          <t>REBECCA</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,21 +628,21 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>POZZOBON</t>
+          <t>BARGELLESI</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>GABRIELE</t>
+          <t>FABIOLA</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -655,21 +655,21 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="10" t="n">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
+          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>SANTI</t>
+          <t>COGO</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>CHRISTOPHER</t>
+          <t>LORENZO</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr"/>
@@ -682,21 +682,21 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>ASD KI KAI DOJO CARBONERA</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>TEMPESTA DE SANTIS</t>
+          <t>RENOSTO</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>ESTRELLA</t>
+          <t>NOEMI</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
@@ -709,21 +709,21 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="n">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>GASPARETTO</t>
+          <t>BERALDO</t>
         </is>
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>REBECCA</t>
+          <t>ALESSIA</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr"/>
@@ -736,21 +736,21 @@
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="6" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>DI BATTISTA</t>
+          <t>POZZOBON</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>RAFFAELE</t>
+          <t>GABRIELE</t>
         </is>
       </c>
       <c r="E10" s="7" t="inlineStr"/>
@@ -763,21 +763,21 @@
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="10" t="n">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>ASD SCUOLA KARATE MIGNAGOLA</t>
+          <t>SCUOLA KARATE GALLIERA/ROSSANO</t>
         </is>
       </c>
       <c r="C11" s="11" t="inlineStr">
         <is>
-          <t>COGO</t>
+          <t>SANTI</t>
         </is>
       </c>
       <c r="D11" s="11" t="inlineStr">
         <is>
-          <t>LORENZO</t>
+          <t>CHRISTOPHER</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr"/>
@@ -790,21 +790,21 @@
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="6" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>ASD KI KAI DOJO CARBONERA</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>BARGELLESI</t>
+          <t>TEMPESTA DE SANTIS</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
         <is>
-          <t>FABIOLA</t>
+          <t>ESTRELLA</t>
         </is>
       </c>
       <c r="E12" s="7" t="inlineStr"/>
@@ -817,7 +817,7 @@
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="10" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
@@ -826,12 +826,12 @@
       </c>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>TAULLARAJ</t>
+          <t>DI BATTISTA</t>
         </is>
       </c>
       <c r="D13" s="11" t="inlineStr">
         <is>
-          <t>IGLI</t>
+          <t>RAFFAELE</t>
         </is>
       </c>
       <c r="E13" s="11" t="inlineStr"/>
